--- a/Excel Lec/HLookup/Lab assignment 3.xlsx
+++ b/Excel Lec/HLookup/Lab assignment 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel Lec\HLookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\HLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0FBB8B-CBE4-4764-A28B-2B87E05FB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0CD30-E47B-45BC-9727-27CD4878C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Sales Data</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Sales of Product A in March</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Sales of Product D in May</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Sales of Product C in February</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Total sales of each month for Every Product</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Max sales for product B across all months</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Min sales for product F across all months</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Average Sales for product E across all months</t>
   </si>
 </sst>
 </file>
@@ -82,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B11" sqref="B11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,156 +441,265 @@
     <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>130</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>140</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>160</v>
       </c>
-      <c r="H4" t="e">
-        <f ca="1">SUM(H5HLOOKUP(B3,B3:F3,2,FALSE))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H4">
+        <f>HLOOKUP("Mar",A3:F9,2,FALSE)</f>
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <f>SUM(HLOOKUP("Jan",A3:F9,2,FALSE),HLOOKUP("Feb",A3:F9,2,FALSE),HLOOKUP("Mar",A3:F9,2,FALSE),HLOOKUP("Apr",A3:F9,2,FALSE),HLOOKUP("May",A3:F9,2,FALSE))</f>
+        <v>700</v>
+      </c>
+      <c r="P4">
+        <f>MAX(HLOOKUP("Jan",A3:F9,3,FALSE),HLOOKUP("Feb",A3:F9,3,FALSE),HLOOKUP("Mar",A3:F9,3,FALSE),HLOOKUP("Apr",A3:F9,3,FALSE),HLOOKUP("May",A3:F9,3,FALSE))</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>150</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>160</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>170</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>180</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f>SUM(HLOOKUP("Jan",A3:F9,3,FALSE),HLOOKUP("Feb",A3:F9,3,FALSE),HLOOKUP("Mar",A3:F9,3,FALSE),HLOOKUP("Apr",A3:F9,3,FALSE),HLOOKUP("May",A3:F9,3,FALSE))</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>210</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>220</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>230</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <f>SUM(HLOOKUP("Jan",A3:F9,4,FALSE),HLOOKUP("Feb",A3:F9,4,FALSE),HLOOKUP("Mar",A3:F9,4,FALSE),HLOOKUP("Apr",A3:F9,4,FALSE),HLOOKUP("May",A3:F9,4,FALSE))</f>
+        <v>1100</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>90</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>120</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="H7">
+        <f>HLOOKUP("May",A3:F9,5,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f>SUM(HLOOKUP("Jan",A3:F9,5,FALSE),HLOOKUP("Feb",A3:F9,5,FALSE),HLOOKUP("Mar",A3:F9,5,FALSE),HLOOKUP("Apr",A3:F9,5,FALSE),HLOOKUP("May",A3:F9,5,FALSE))</f>
+        <v>550</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>220</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>230</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>240</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>250</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f>SUM(HLOOKUP("Jan",A3:F9,6,FALSE),HLOOKUP("Feb",A3:F9,6,FALSE),HLOOKUP("Mar",A3:F9,6,FALSE),HLOOKUP("Apr",A3:F9,6,FALSE),HLOOKUP("May",A3:F9,6,FALSE))</f>
+        <v>1200</v>
+      </c>
+      <c r="P8">
+        <f>MIN(HLOOKUP("Jan",A3:F9,7,FALSE),HLOOKUP("Feb",A3:F9,7,FALSE),HLOOKUP("Mar",A3:F9,7,FALSE),HLOOKUP("Apr",A3:F9,7,FALSE),HLOOKUP("May",A3:F9,7,FALSE))</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>130</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>140</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>150</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>160</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <f>SUM(HLOOKUP("Jan",A3:F9,7,FALSE),HLOOKUP("Feb",A3:F9,7,FALSE),HLOOKUP("Mar",A3:F9,7,FALSE),HLOOKUP("Apr",A3:F9,7,FALSE),HLOOKUP("May",A3:F9,7,FALSE))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>HLOOKUP("Feb",A3:F9,4)</f>
+        <v>210</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f>AVERAGE(HLOOKUP("Jan",A3:F9,6,FALSE),HLOOKUP("Feb",A3:F9,6,FALSE),HLOOKUP("Mar",A3:F9,6,FALSE),HLOOKUP("Apr",A3:F9,6,FALSE),HLOOKUP("May",A3:F9,6,FALSE))</f>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
